--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_89.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:00:36.180000', '0:00:37.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.58, 14.88)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(74.5, 80.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
